--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b5b2353c5330724/Desktop/Learn/Mukesh pojects/SeleniumFrameworkJanBatch2025/TestData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_C23BD98C8EAF39736A2ED3D95BBEB7055CA6C671" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD6BAEA-152D-4BA5-871B-32E3DEE2F06F}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="logindetails" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="logindetails" sheetId="1" r:id="rId1"/>
+    <sheet name="registerdetails" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,22 +26,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">admin@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>admin@email.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>Learnify</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Ritika@gmail.com</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>Selenium WebDriver</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Usman</t>
+  </si>
+  <si>
+    <t>Usman@gmail.com</t>
+  </si>
+  <si>
+    <t>Leantify1</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Singing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,22 +89,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -74,7 +112,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -82,107 +120,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -235,45 +249,113 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="admin@email.com"/>
-    <hyperlink ref="B1" r:id="rId2" display="admin@123"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F261EBE0-EB53-4492-9D1A-2C93E2DDD3E0}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="4" max="5" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{1632B144-4B21-4D31-A87D-E4A7BB647AC8}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{002F7734-19A7-4F50-BF39-7F9AB270F444}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,31 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="logindetails" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="logindetails" sheetId="1" r:id="rId3"/>
+    <sheet name="registerDetails" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">admin@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>admin@email.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>Rashmi</t>
+  </si>
+  <si>
+    <t>rashmi@gmail.com</t>
+  </si>
+  <si>
+    <t>Learnify</t>
+  </si>
+  <si>
+    <t>Selenium WebDriver</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Mukesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Singing</t>
+  </si>
+  <si>
+    <t>Learnify1</t>
   </si>
 </sst>
 </file>
@@ -35,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,18 +82,9 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -63,6 +92,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +110,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -83,52 +119,132 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -140,37 +256,37 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -239,23 +355,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5342857142857" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
+    <col min="1" max="1" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="12.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -268,12 +381,76 @@
     <hyperlink ref="A1" r:id="rId1" display="admin@email.com"/>
     <hyperlink ref="B1" r:id="rId2" display="admin@123"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B28DD3-B846-477A-9BE3-0B3129F6B9A4}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="20.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2cdd42149d18ae4/Desktop/Jan 2025 Batch Selenium Java/BreakOut_GitHubJenkinsFreamwork/SeleniumFrameworkJanBatch2025/TestData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_C23BD98C8EAF39736A2ED3D95BBEB7055CA6C671" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA3ABCC-089F-4E88-9616-F7786887651B}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="logindetails" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="logindetails" sheetId="1" r:id="rId1"/>
+    <sheet name="signUpDetails" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,22 +26,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">admin@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>admin@email.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>pass123</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>testNewUser@email.com</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>testAnotherUser@gmail.com</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Playing</t>
+  </si>
+  <si>
+    <t>C#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,22 +89,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -73,116 +111,112 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -235,45 +269,267 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="admin@email.com"/>
-    <hyperlink ref="B1" r:id="rId2" display="admin@123"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B2865-0703-462C-AF0C-33C94DEFBE3A}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{6EF25753-B0C6-4A31-8A70-D14E2C104153}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{635BF43A-0B2C-4A72-819C-7114B1786486}"/>
+    <hyperlink ref="C2" r:id="rId3" display="pass@11" xr:uid="{840A1A7D-EA7C-4DD7-AB02-8E7ABB69FF1A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>